--- a/2021/Demographic x Usage/Ethnicity vs. participation - FULL.xlsx
+++ b/2021/Demographic x Usage/Ethnicity vs. participation - FULL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliexphan/Documents/1 - Fall 2021/4 - CS 5306/cs5306-p1/2021/Demographic x Usage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A77B587-BAAB-1047-A72D-BFC2A03B1EC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85100F2-37DB-9442-9DE7-43643C5D1FBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:N18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="171" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1383,55 +1383,42 @@
         <v>13</v>
       </c>
       <c r="B22">
-        <f>B2/B$9</f>
         <v>0.49177754124534329</v>
       </c>
       <c r="C22">
-        <f>C2/C$9</f>
         <v>0.39330071509220926</v>
       </c>
       <c r="D22">
-        <f>D2/D$9</f>
         <v>0.45974672094075081</v>
       </c>
       <c r="E22">
-        <f>E2/E$9</f>
         <v>0.43918367346938775</v>
       </c>
       <c r="F22">
-        <f>F2/F$9</f>
         <v>0.40932485619134118</v>
       </c>
       <c r="G22">
-        <f>G2/G$9</f>
         <v>0.42393162393162392</v>
       </c>
       <c r="H22">
-        <f>H2/H$9</f>
         <v>0.41015761821366026</v>
       </c>
       <c r="I22" s="3">
-        <f>I2/I$9</f>
         <v>0.41656263004577609</v>
       </c>
       <c r="J22" s="3">
-        <f>J2/J$9</f>
         <v>0.39806273062730629</v>
       </c>
       <c r="K22" s="3">
-        <f>K2/K$9</f>
         <v>0.38273921200750471</v>
       </c>
       <c r="L22" s="3">
-        <f>L2/L$9</f>
         <v>0.4599434495758718</v>
       </c>
       <c r="M22" s="3">
-        <f>M2/M$9</f>
         <v>0.47124824684431976</v>
       </c>
       <c r="N22" s="3">
-        <f>N2/N$9</f>
         <v>0.42482100238663484</v>
       </c>
     </row>
@@ -1440,55 +1427,42 @@
         <v>14</v>
       </c>
       <c r="B23" s="4">
-        <f>B3/B$9</f>
         <v>0.19316125598722725</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" ref="C23:I27" si="14">C3/C$9</f>
         <v>0.22092585622882951</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="14"/>
         <v>0.24966078697421981</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="14"/>
         <v>0.20136054421768707</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="14"/>
         <v>0.26279140175597943</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="14"/>
         <v>0.19188034188034189</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="14"/>
         <v>0.23992994746059546</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="14"/>
         <v>0.20474406991260924</v>
       </c>
       <c r="J23" s="5">
-        <f>J3/J$9</f>
         <v>0.27260147601476015</v>
       </c>
       <c r="K23" s="5">
-        <f>K3/K$9</f>
         <v>0.25046904315196999</v>
       </c>
       <c r="L23" s="5">
-        <f>L3/L$9</f>
         <v>0.20263901979264845</v>
       </c>
       <c r="M23" s="5">
-        <f>M3/M$9</f>
         <v>0.22300140252454417</v>
       </c>
       <c r="N23" s="5">
-        <f>N3/N$9</f>
         <v>0.21002386634844869</v>
       </c>
     </row>
@@ -1497,55 +1471,42 @@
         <v>15</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:B27" si="15">B4/B$9</f>
         <v>0.18536455561468868</v>
       </c>
       <c r="C24">
-        <f t="shared" si="14"/>
         <v>0.21415129845690628</v>
       </c>
       <c r="D24">
-        <f t="shared" si="14"/>
         <v>0.16938037087290819</v>
       </c>
       <c r="E24">
-        <f t="shared" si="14"/>
         <v>0.20081632653061224</v>
       </c>
       <c r="F24">
-        <f t="shared" si="14"/>
         <v>0.18498334847108688</v>
       </c>
       <c r="G24">
-        <f t="shared" si="14"/>
         <v>0.21239316239316239</v>
       </c>
       <c r="H24">
-        <f t="shared" si="14"/>
         <v>0.18178633975481612</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="14"/>
         <v>0.21181856013316688</v>
       </c>
       <c r="J24" s="3">
-        <f>J4/J$9</f>
         <v>0.19741697416974169</v>
       </c>
       <c r="K24" s="3">
-        <f>K4/K$9</f>
         <v>0.21294559099437149</v>
       </c>
       <c r="L24" s="3">
-        <f>L4/L$9</f>
         <v>0.18284637134778511</v>
       </c>
       <c r="M24" s="3">
-        <f>M4/M$9</f>
         <v>0.17391304347826086</v>
       </c>
       <c r="N24" s="3">
-        <f>N4/N$9</f>
         <v>0.18377088305489261</v>
       </c>
     </row>
@@ -1554,55 +1515,42 @@
         <v>16</v>
       </c>
       <c r="B25">
-        <f t="shared" si="15"/>
         <v>7.5758382118147949E-2</v>
       </c>
       <c r="C25">
-        <f t="shared" si="14"/>
         <v>0.10500564546480994</v>
       </c>
       <c r="D25">
-        <f t="shared" si="14"/>
         <v>7.2817729534147446E-2</v>
       </c>
       <c r="E25">
-        <f t="shared" si="14"/>
         <v>9.7414965986394556E-2</v>
       </c>
       <c r="F25">
-        <f t="shared" si="14"/>
         <v>8.9009990917347862E-2</v>
       </c>
       <c r="G25">
-        <f t="shared" si="14"/>
         <v>0.10641025641025641</v>
       </c>
       <c r="H25">
-        <f t="shared" si="14"/>
         <v>0.10332749562171628</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="14"/>
         <v>9.5713691219309199E-2</v>
       </c>
       <c r="J25" s="3">
-        <f>J5/J$9</f>
         <v>7.8874538745387454E-2</v>
       </c>
       <c r="K25" s="3">
-        <f>K5/K$9</f>
         <v>9.0994371482176359E-2</v>
       </c>
       <c r="L25" s="3">
-        <f>L5/L$9</f>
         <v>9.2365692742695571E-2</v>
       </c>
       <c r="M25" s="3">
-        <f>M5/M$9</f>
         <v>7.7138849929873771E-2</v>
       </c>
       <c r="N25" s="3">
-        <f>N5/N$9</f>
         <v>0.12171837708830549</v>
       </c>
     </row>
@@ -1611,55 +1559,42 @@
         <v>17</v>
       </c>
       <c r="B26">
-        <f t="shared" si="15"/>
         <v>3.5550824906865355E-2</v>
       </c>
       <c r="C26">
-        <f t="shared" si="14"/>
         <v>4.6920085309246018E-2</v>
       </c>
       <c r="D26">
-        <f t="shared" si="14"/>
         <v>3.5956580732700139E-2</v>
       </c>
       <c r="E26">
-        <f t="shared" si="14"/>
         <v>4.2448979591836737E-2</v>
       </c>
       <c r="F26">
-        <f t="shared" si="14"/>
         <v>3.6633363608840445E-2</v>
       </c>
       <c r="G26">
-        <f t="shared" si="14"/>
         <v>4.6153846153846156E-2</v>
       </c>
       <c r="H26">
-        <f t="shared" si="14"/>
         <v>3.8879159369527148E-2</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="14"/>
         <v>4.9105285060341237E-2</v>
       </c>
       <c r="J26" s="3">
-        <f>J6/J$9</f>
         <v>3.5977859778597784E-2</v>
       </c>
       <c r="K26" s="3">
-        <f>K6/K$9</f>
         <v>3.9868667917448405E-2</v>
       </c>
       <c r="L26" s="3">
-        <f>L6/L$9</f>
         <v>4.3355325164938736E-2</v>
       </c>
       <c r="M26" s="3">
-        <f>M6/M$9</f>
         <v>2.9453015427769985E-2</v>
       </c>
       <c r="N26" s="3">
-        <f>N6/N$9</f>
         <v>4.2959427207637228E-2</v>
       </c>
     </row>
@@ -1668,55 +1603,42 @@
         <v>18</v>
       </c>
       <c r="B27">
-        <f t="shared" si="15"/>
         <v>1.8387440127727514E-2</v>
       </c>
       <c r="C27">
-        <f t="shared" si="14"/>
         <v>1.9696399447998995E-2</v>
       </c>
       <c r="D27">
-        <f t="shared" si="14"/>
         <v>1.2437810945273632E-2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="14"/>
         <v>1.8775510204081632E-2</v>
       </c>
       <c r="F27">
-        <f t="shared" si="14"/>
         <v>1.725703905540418E-2</v>
       </c>
       <c r="G27">
-        <f t="shared" si="14"/>
         <v>1.9230769230769232E-2</v>
       </c>
       <c r="H27">
-        <f t="shared" si="14"/>
         <v>2.5919439579684764E-2</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="14"/>
         <v>2.2055763628797336E-2</v>
       </c>
       <c r="J27" s="3">
-        <f>J7/J$9</f>
         <v>1.7066420664206643E-2</v>
       </c>
       <c r="K27" s="3">
-        <f>K7/K$9</f>
         <v>2.298311444652908E-2</v>
       </c>
       <c r="L27" s="3">
-        <f>L7/L$9</f>
         <v>1.8850141376060319E-2</v>
       </c>
       <c r="M27" s="3">
-        <f>M7/M$9</f>
         <v>2.5245441795231416E-2</v>
       </c>
       <c r="N27" s="3">
-        <f>N7/N$9</f>
         <v>1.6706443914081145E-2</v>
       </c>
     </row>
@@ -1729,51 +1651,51 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:N29" si="16">SUM(C22:C27)</f>
+        <f t="shared" ref="C29:N29" si="14">SUM(C22:C27)</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="D29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="E29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="F29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="G29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -2103,39 +2025,39 @@
         <v>1.4938753297237264</v>
       </c>
       <c r="F40">
-        <f t="shared" ref="F40:N40" si="17">(F33*2*F34+3*F35+4*F36+5*F37+6*F38)</f>
+        <f t="shared" ref="F40:N40" si="15">(F33*2*F34+3*F35+4*F36+5*F37+6*F38)</f>
         <v>1.412833166923454</v>
       </c>
       <c r="G40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.5716626488421361</v>
       </c>
       <c r="H40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.5053996276541908</v>
       </c>
       <c r="I40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.5667489088493731</v>
       </c>
       <c r="J40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.4070618761999429</v>
       </c>
       <c r="K40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.5317849335947538</v>
       </c>
       <c r="L40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.4342843386594013</v>
       </c>
       <c r="M40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.3392102980315479</v>
       </c>
       <c r="N40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.5316670558951022</v>
       </c>
     </row>

--- a/2021/Demographic x Usage/Ethnicity vs. participation - FULL.xlsx
+++ b/2021/Demographic x Usage/Ethnicity vs. participation - FULL.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliexphan/Documents/1 - Fall 2021/4 - CS 5306/cs5306-p1/2021/Demographic x Usage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85100F2-37DB-9442-9DE7-43643C5D1FBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3F1168-7A4C-A744-97C4-203795BDAF42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="22">
   <si>
     <t>White or of European descent</t>
   </si>
@@ -533,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="171" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A6" zoomScale="171" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2124,4 +2125,357 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC38A85-9C6C-7C49-B29D-3B9C67E6F5D2}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>0.49177754124534329</v>
+      </c>
+      <c r="C2">
+        <v>0.39330071509220926</v>
+      </c>
+      <c r="D2">
+        <v>0.45974672094075081</v>
+      </c>
+      <c r="E2">
+        <v>0.43918367346938775</v>
+      </c>
+      <c r="F2">
+        <v>0.40932485619134118</v>
+      </c>
+      <c r="G2">
+        <v>0.42393162393162392</v>
+      </c>
+      <c r="H2">
+        <v>0.41015761821366026</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.41656263004577609</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.39806273062730629</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.38273921200750471</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.4599434495758718</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.47124824684431976</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.42482100238663484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.19316125598722725</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.22092585622882951</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.24966078697421981</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.20136054421768707</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.26279140175597943</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.19188034188034189</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.23992994746059546</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.20474406991260924</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.27260147601476015</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.25046904315196999</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.20263901979264845</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.22300140252454417</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.21002386634844869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0.18536455561468868</v>
+      </c>
+      <c r="C4">
+        <v>0.21415129845690628</v>
+      </c>
+      <c r="D4">
+        <v>0.16938037087290819</v>
+      </c>
+      <c r="E4">
+        <v>0.20081632653061224</v>
+      </c>
+      <c r="F4">
+        <v>0.18498334847108688</v>
+      </c>
+      <c r="G4">
+        <v>0.21239316239316239</v>
+      </c>
+      <c r="H4">
+        <v>0.18178633975481612</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.21181856013316688</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.19741697416974169</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.21294559099437149</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.18284637134778511</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.18377088305489261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>7.5758382118147949E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.10500564546480994</v>
+      </c>
+      <c r="D5">
+        <v>7.2817729534147446E-2</v>
+      </c>
+      <c r="E5">
+        <v>9.7414965986394556E-2</v>
+      </c>
+      <c r="F5">
+        <v>8.9009990917347862E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.10641025641025641</v>
+      </c>
+      <c r="H5">
+        <v>0.10332749562171628</v>
+      </c>
+      <c r="I5" s="3">
+        <v>9.5713691219309199E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>7.8874538745387454E-2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>9.0994371482176359E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>9.2365692742695571E-2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>7.7138849929873771E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.12171837708830549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>3.5550824906865355E-2</v>
+      </c>
+      <c r="C6">
+        <v>4.6920085309246018E-2</v>
+      </c>
+      <c r="D6">
+        <v>3.5956580732700139E-2</v>
+      </c>
+      <c r="E6">
+        <v>4.2448979591836737E-2</v>
+      </c>
+      <c r="F6">
+        <v>3.6633363608840445E-2</v>
+      </c>
+      <c r="G6">
+        <v>4.6153846153846156E-2</v>
+      </c>
+      <c r="H6">
+        <v>3.8879159369527148E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>4.9105285060341237E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3.5977859778597784E-2</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3.9868667917448405E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>4.3355325164938736E-2</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2.9453015427769985E-2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>4.2959427207637228E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>1.8387440127727514E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.9696399447998995E-2</v>
+      </c>
+      <c r="D7">
+        <v>1.2437810945273632E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.8775510204081632E-2</v>
+      </c>
+      <c r="F7">
+        <v>1.725703905540418E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.9230769230769232E-2</v>
+      </c>
+      <c r="H7">
+        <v>2.5919439579684764E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.2055763628797336E-2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.7066420664206643E-2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2.298311444652908E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.8850141376060319E-2</v>
+      </c>
+      <c r="M7" s="3">
+        <v>2.5245441795231416E-2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1.6706443914081145E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:N7">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{31E5D82A-C434-F549-8A33-360B21F61DE8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{31E5D82A-C434-F549-8A33-360B21F61DE8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:N7</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>